--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2633577.035528214</v>
+        <v>2631689.454011812</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>568729.4449175108</v>
+        <v>766579.1047374638</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>194.3948856720723</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>196.8405671533556</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>113.2870337730222</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>61.75656432199281</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>10.50623107476311</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11.42298697363699</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>72.01911197840556</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.6529319504858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>88.86494278824894</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.3986772955387</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>222.2179949548713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>156.1725817340239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>179.4770256833245</v>
       </c>
       <c r="W25" t="n">
-        <v>263.3452520788657</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750029</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>26.15603929387822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571499</v>
+        <v>55.21598883571489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>128.5465569951253</v>
+        <v>14.32148215341303</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373777</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692859</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346314</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415221</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1618.50539369077</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="C2" t="n">
-        <v>1618.50539369077</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2267.114058152426</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2267.114058152426</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1936.051170808855</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1583.282515538741</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1209.816757277661</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.50539369077</v>
+        <v>819.6774253018493</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,43 +4407,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.4909684781771</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>318.4909684781771</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>168.3743290658414</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.061315312042</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.061315312042</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>1331.061315312042</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>945.273062713798</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>534.2871579241905</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>116.3233498223774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,22 +4826,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="V8" t="n">
-        <v>1982.008090792599</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.008090792599</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X8" t="n">
         <v>1982.008090792599</v>
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I9" t="n">
+        <v>53.94298182036469</v>
+      </c>
+      <c r="J9" t="n">
         <v>53.94298182036446</v>
       </c>
-      <c r="J9" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4926,7 +4926,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047577</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5039,13 +5039,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5124,13 +5124,13 @@
         <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>1315.094589363763</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X13" t="n">
-        <v>781.8780707889955</v>
+        <v>797.6878684287847</v>
       </c>
       <c r="Y13" t="n">
-        <v>581.2185435662825</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1931.863653619506</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.1301850426789</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>245.1301850426789</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1457.099424804833</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1457.099424804833</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1233.314009594339</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>944.1853708078967</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>944.1853708078967</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>654.768200770936</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7786498729187</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>506.0324822735072</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,10 +5510,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5522,43 +5522,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,31 +5580,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667473</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5829,16 +5829,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1931.863653619506</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925217</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028583</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.392413140465</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="C25" t="n">
-        <v>265.392413140465</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="D25" t="n">
-        <v>265.392413140465</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E25" t="n">
-        <v>265.392413140465</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F25" t="n">
-        <v>265.392413140465</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765192</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706324</v>
+        <v>1093.840930414757</v>
       </c>
       <c r="W25" t="n">
-        <v>265.392413140465</v>
+        <v>804.4237603777963</v>
       </c>
       <c r="X25" t="n">
-        <v>265.392413140465</v>
+        <v>576.4342094797789</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.392413140465</v>
+        <v>355.6416303362488</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1203.717190266572</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>1524.052509796274</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799362</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V28" t="n">
-        <v>648.5868613273559</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>359.1696912903953</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
         <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.3437276440244</v>
+        <v>658.7225911205026</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440244</v>
+        <v>545.5472734739665</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440244</v>
+        <v>451.1914993430015</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>451.1914993430015</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1006.491726671699</v>
+        <v>1121.870590148177</v>
       </c>
       <c r="X31" t="n">
-        <v>834.2630410550528</v>
+        <v>949.6419045315306</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.2313271928933</v>
+        <v>784.6101906693714</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506733</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,19 +7157,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7312,37 +7312,37 @@
         <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103131</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7816,7 +7816,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9972,7 +9972,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10209,7 +10209,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>180.1185313454224</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.93172140160896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>90.96703739368836</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>68.5656751082541</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>69.5370736550133</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>72.66061764050349</v>
       </c>
       <c r="W25" t="n">
-        <v>23.17774625772529</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338633</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>225.9816040299498</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.7731847129087</v>
+        <v>216.9982595546208</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833985.381557804</v>
+        <v>833985.3815578041</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196778</v>
@@ -26329,31 +26329,31 @@
         <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="I2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="K2" t="n">
         <v>589892.0991506411</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516042</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="M2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516044</v>
+        <v>595255.2831516045</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086694</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758822</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758888</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758785</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759211</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905759186</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477235</v>
+        <v>18952.41620477247</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189633</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069683</v>
+        <v>-216630.8133069678</v>
       </c>
       <c r="C6" t="n">
+        <v>373337.0659075766</v>
+      </c>
+      <c r="D6" t="n">
         <v>373337.0659075764</v>
       </c>
-      <c r="D6" t="n">
-        <v>373337.0659075765</v>
-      </c>
       <c r="E6" t="n">
-        <v>-50943.01949651075</v>
+        <v>-51040.47862248305</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803852</v>
+        <v>474119.557854413</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803854</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803854</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803851</v>
+        <v>474119.557854413</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877923</v>
+        <v>297696.3386618203</v>
       </c>
       <c r="K6" t="n">
-        <v>430148.8691128005</v>
+        <v>430130.3753748659</v>
       </c>
       <c r="L6" t="n">
-        <v>463990.6895988156</v>
+        <v>463990.6895988161</v>
       </c>
       <c r="M6" t="n">
         <v>339532.5811658459</v>
       </c>
       <c r="N6" t="n">
-        <v>474333.5963996831</v>
+        <v>474333.5963996828</v>
       </c>
       <c r="O6" t="n">
-        <v>474333.5963996826</v>
+        <v>474333.5963996827</v>
       </c>
       <c r="P6" t="n">
-        <v>430170.9910968373</v>
+        <v>430170.9910968371</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990174</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>160.2881559486107</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>19.60775320430224</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>33.146928873547</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>52.0418657493431</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>262.1662084423643</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.5017245654299</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.9721715000486</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>316.3292714964979</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592665</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31148,19 +31148,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>115.481539230439</v>
       </c>
       <c r="L6" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>4.797192695340925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>353.0329386354459</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32087,7 +32087,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508803</v>
+        <v>350.6961576959736</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,7 +32324,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>429.7571393808937</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>350.6961576959736</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33029,13 +33029,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>302.3490120616786</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33044,7 +33044,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33281,16 +33281,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>174.576749776926</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>174.576749776926</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,19 +34208,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686586</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>352.7978549555611</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>604.299013467731</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35735,7 +35735,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111005</v>
+        <v>698.6968199561938</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,10 +35972,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>777.7578016411139</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36209,7 +36209,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>698.6968199561938</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36677,13 +36677,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6349775852636</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>274.515464094862</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>301.2005478151456</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,10 +37391,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>301.2005478151456</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520611</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
